--- a/test.xlsx
+++ b/test.xlsx
@@ -24,9 +24,6 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>данные</t>
-  </si>
-  <si>
     <t>ох</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>подгруппа</t>
-  </si>
-  <si>
     <t>Там</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>имена групп</t>
   </si>
   <si>
-    <t>объединяются при максимально разборе данных</t>
-  </si>
-  <si>
     <t>Шапкой считается</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>Одинаковые Артикулы</t>
   </si>
   <si>
-    <t>При полном разборе заменяют друг друга</t>
-  </si>
-  <si>
     <t>поднялись, когда в ячейке только один символ</t>
   </si>
   <si>
@@ -142,13 +130,25 @@
   </si>
   <si>
     <t>становится группой</t>
+  </si>
+  <si>
+    <t>При полном init разборе заменяют друг друга</t>
+  </si>
+  <si>
+    <t>дан/ные</t>
+  </si>
+  <si>
+    <t>объединяются при максимально разборе данных init</t>
+  </si>
+  <si>
+    <t>ПОДГРУППА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +156,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,8 +227,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -462,193 +536,196 @@
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>